--- a/data/trans_orig/P19F$mañana-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8113402F-23AF-46BF-B81C-8D3ACD002DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A364A7-7F03-4854-AB76-F5E6485FF132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00A60026-20EE-45A1-B649-691C5E73065F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6AA17481-7322-48D7-BA57-FC6B1AF2F509}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="202">
-  <si>
-    <t>Población según el momento del día en que acostumbra a cepillarse los dientes en 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="229">
+  <si>
+    <t>Población según el momento del día en que acostumbra a cepillarse los dientes (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,7 +59,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Mañana</t>
@@ -152,7 +152,7 @@
     <t>85,74%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>43,08%</t>
@@ -236,7 +236,7 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>37,94%</t>
@@ -320,7 +320,7 @@
     <t>83,18%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>38,23%</t>
@@ -401,7 +401,7 @@
     <t>80,34%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>43,63%</t>
@@ -482,85 +482,166 @@
     <t>79,7%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>40,87%</t>
@@ -1053,8 +1134,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0CC198-FE16-4083-9096-CAB040352058}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C86DD92-427E-4AC1-AD38-EA62ABC3FF68}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1646,31 +1727,31 @@
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1679,31 +1760,31 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1712,66 +1793,66 @@
         <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1780,31 +1861,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1813,45 +1894,147 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>201</v>
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
